--- a/README_files/export.xlsx
+++ b/README_files/export.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,6 +1803,25 @@
         <v>-25.8</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Construction confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>-0.1</v>
+      </c>
+      <c r="D76">
+        <v>-17.9</v>
+      </c>
+      <c r="E76">
+        <v>-22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1810,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3252,6 +3271,25 @@
         <v>4.9</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Consumer confidence indicator (20%)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="D76">
+        <v>-2.6</v>
+      </c>
+      <c r="E76">
+        <v>4.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3259,7 +3297,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4701,6 +4739,25 @@
         <v>10.7</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Industrial confidence indicator (40%)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>11.7</v>
+      </c>
+      <c r="D76">
+        <v>0.4</v>
+      </c>
+      <c r="E76">
+        <v>14.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4708,7 +4765,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6150,6 +6207,25 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Retail trade confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>-14.9</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6157,7 +6233,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7599,6 +7675,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Services confidence indicator (30 %)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>-3.4</v>
+      </c>
+      <c r="D76">
+        <v>-10.1</v>
+      </c>
+      <c r="E76">
+        <v>7.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7606,7 +7701,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9048,6 +9143,25 @@
         <v>104.9</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>The Economic sentiment indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>103.7</v>
+      </c>
+      <c r="D76">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E76">
+        <v>106.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9055,7 +9169,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10497,6 +10611,25 @@
         <v>100.7</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>The Employment expectations indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C76">
+        <v>100.2</v>
+      </c>
+      <c r="D76">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E76">
+        <v>101.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/README_files/export.xlsx
+++ b/README_files/export.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,6 +1822,25 @@
         <v>-22</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Construction confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>1.4</v>
+      </c>
+      <c r="D77">
+        <v>-8.6</v>
+      </c>
+      <c r="E77">
+        <v>-11.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1829,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3290,6 +3309,25 @@
         <v>4.2</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Consumer confidence indicator (20%)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>-7.9</v>
+      </c>
+      <c r="D77">
+        <v>4.4</v>
+      </c>
+      <c r="E77">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3297,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4758,6 +4796,25 @@
         <v>14.1</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Industrial confidence indicator (40%)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>18.5</v>
+      </c>
+      <c r="D77">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E77">
+        <v>21.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4765,7 +4822,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6226,6 +6283,25 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Retail trade confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>-8</v>
+      </c>
+      <c r="D77">
+        <v>11.6</v>
+      </c>
+      <c r="E77">
+        <v>24.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6233,7 +6309,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7694,6 +7770,25 @@
         <v>7.2</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Services confidence indicator (30 %)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>5.4</v>
+      </c>
+      <c r="D77">
+        <v>7.8</v>
+      </c>
+      <c r="E77">
+        <v>32.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7701,7 +7796,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9162,6 +9257,25 @@
         <v>106.7</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>The Economic sentiment indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>109.4</v>
+      </c>
+      <c r="D77">
+        <v>109.8</v>
+      </c>
+      <c r="E77">
+        <v>117.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9169,7 +9283,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10630,6 +10744,25 @@
         <v>101.2</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>The Employment expectations indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B77" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C77">
+        <v>104.5</v>
+      </c>
+      <c r="D77">
+        <v>108.4</v>
+      </c>
+      <c r="E77">
+        <v>113.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/README_files/export.xlsx
+++ b/README_files/export.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,6 +1841,63 @@
         <v>-11.2</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Construction confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>3.5</v>
+      </c>
+      <c r="D78">
+        <v>-11.8</v>
+      </c>
+      <c r="E78">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Construction confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>4.3</v>
+      </c>
+      <c r="D79">
+        <v>-8.6</v>
+      </c>
+      <c r="E79">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Construction confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>3.6</v>
+      </c>
+      <c r="D80">
+        <v>-1.3</v>
+      </c>
+      <c r="E80">
+        <v>10.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1848,7 +1905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3328,6 +3385,63 @@
         <v>6.2</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Consumer confidence indicator (20%)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>-4.3</v>
+      </c>
+      <c r="D78">
+        <v>2.4</v>
+      </c>
+      <c r="E78">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Consumer confidence indicator (20%)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>-1.2</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Consumer confidence indicator (20%)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>-2</v>
+      </c>
+      <c r="D80">
+        <v>3.3</v>
+      </c>
+      <c r="E80">
+        <v>7.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3335,7 +3449,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4815,6 +4929,63 @@
         <v>21.7</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Industrial confidence indicator (40%)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>18.6</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Industrial confidence indicator (40%)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>21.4</v>
+      </c>
+      <c r="D79">
+        <v>20.8</v>
+      </c>
+      <c r="E79">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Industrial confidence indicator (40%)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>23.2</v>
+      </c>
+      <c r="D80">
+        <v>17.7</v>
+      </c>
+      <c r="E80">
+        <v>28.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4822,7 +4993,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6302,6 +6473,63 @@
         <v>24.7</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Retail trade confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>-5.4</v>
+      </c>
+      <c r="D78">
+        <v>9.9</v>
+      </c>
+      <c r="E78">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Retail trade confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>10.2</v>
+      </c>
+      <c r="E79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Retail trade confidence indicator (5%)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>3.1</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
+      </c>
+      <c r="E80">
+        <v>27.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6309,7 +6537,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7789,6 +8017,63 @@
         <v>32.6</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Services confidence indicator (30 %)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>12.8</v>
+      </c>
+      <c r="D78">
+        <v>14.8</v>
+      </c>
+      <c r="E78">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Services confidence indicator (30 %)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>23.8</v>
+      </c>
+      <c r="D79">
+        <v>17.6</v>
+      </c>
+      <c r="E79">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Services confidence indicator (30 %)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>21.9</v>
+      </c>
+      <c r="D80">
+        <v>20.9</v>
+      </c>
+      <c r="E80">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7796,7 +8081,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9276,6 +9561,63 @@
         <v>117.5</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>The Economic sentiment indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>112.2</v>
+      </c>
+      <c r="D78">
+        <v>110.4</v>
+      </c>
+      <c r="E78">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The Economic sentiment indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>117.2</v>
+      </c>
+      <c r="D79">
+        <v>114.8</v>
+      </c>
+      <c r="E79">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The Economic sentiment indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>117.5</v>
+      </c>
+      <c r="D80">
+        <v>113.9</v>
+      </c>
+      <c r="E80">
+        <v>123.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9283,7 +9625,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10763,6 +11105,63 @@
         <v>113.1</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>The Employment expectations indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B78" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C78">
+        <v>107.3</v>
+      </c>
+      <c r="D78">
+        <v>110.8</v>
+      </c>
+      <c r="E78">
+        <v>112.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The Employment expectations indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B79" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C79">
+        <v>112.5</v>
+      </c>
+      <c r="D79">
+        <v>112.3</v>
+      </c>
+      <c r="E79">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The Employment expectations indicator is a composite measure (average = 100)</t>
+        </is>
+      </c>
+      <c r="B80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C80">
+        <v>110.6</v>
+      </c>
+      <c r="D80">
+        <v>115</v>
+      </c>
+      <c r="E80">
+        <v>113.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
